--- a/ydareniya.xlsx
+++ b/ydareniya.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="539">
   <si>
     <t>зАтемно</t>
   </si>
@@ -1633,6 +1633,9 @@
   </si>
   <si>
     <t>баловАться</t>
+  </si>
+  <si>
+    <t>орфоЭпии</t>
   </si>
 </sst>
 </file>
@@ -1952,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3389,7 +3392,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>128</v>
+        <v>538</v>
       </c>
       <c r="B179" t="s">
         <v>128</v>
